--- a/INHA_1-2/AUTO/excel/test.xlsx
+++ b/INHA_1-2/AUTO/excel/test.xlsx
@@ -26,7 +26,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,6 +37,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -70,16 +76,16 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -401,24 +407,25 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2">
         <v>1234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>3.141592653589793</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
-        <v>25569.375523530092</v>
+        <v>25569.375520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1">
         <f>A2 + 10</f>
+        <v>25569.375</v>
       </c>
     </row>
   </sheetData>
